--- a/Stories/WMDs.xlsx
+++ b/Stories/WMDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC13D625-571E-4DDB-B29B-507B97092932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F1281-E5B0-457B-B692-F4D64A078FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19A45076-EEA2-4D9B-A3FE-00F263EB5362}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{19A45076-EEA2-4D9B-A3FE-00F263EB5362}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>New weapons to cause mass destruction</t>
   </si>
   <si>
-    <t>The discover of a hidden weapons facility in a neighbouring kindom brings shocking news to the world. No-one knows where or what is in the facility but after attempting to reach out to the kingdom's military commander for comment, his silence says everything.</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
@@ -107,18 +104,9 @@
     <t>They are our allies and we have been at peace with them for over a century.</t>
   </si>
   <si>
-    <t>From our reports there are no new weapons being made anywhere.</t>
-  </si>
-  <si>
-    <t>We should start saving away food just in case.</t>
-  </si>
-  <si>
     <t>Maybe we should evacuate?</t>
   </si>
   <si>
-    <t>I was wondering if the alliance was a scheme to conceal their actual financial situation</t>
-  </si>
-  <si>
     <t>Maybe that is why the metal ingot and charcoal are so expensive now.</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
   </si>
   <si>
     <t>I do not think our allies will go against our peace treaty agreement.</t>
-  </si>
-  <si>
-    <t>Maybe our enemy is tring to cast a bone between us to destroy our friendship!</t>
   </si>
   <si>
     <t>OUTCOME</t>
@@ -150,39 +135,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Yes, they are definately spying on us.</t>
-  </si>
-  <si>
     <t>Spies always get caught</t>
   </si>
   <si>
-    <t>A few more spies never hurt</t>
-  </si>
-  <si>
-    <t>Maybe have them steal us something good too</t>
-  </si>
-  <si>
-    <t>If they get caught, peace will be lost</t>
-  </si>
-  <si>
     <t>I could have the peddlers working out for information as well!</t>
   </si>
   <si>
-    <t>Should not we prioritize why we must spend so much for training our spies?</t>
-  </si>
-  <si>
-    <t>I do not want to risk my men just because the military commander is stating so.</t>
-  </si>
-  <si>
     <t>Maybe it is better to buy off their men for more information.</t>
   </si>
   <si>
     <t>No, this must be a trap to frame us for doubting them!</t>
   </si>
   <si>
-    <t>The spies are better our best men to avoid being captured!</t>
-  </si>
-  <si>
     <t>ACTION 2</t>
   </si>
   <si>
@@ -192,9 +156,6 @@
     <t>This is a very smart move.</t>
   </si>
   <si>
-    <t>I would expect to get anywhere</t>
-  </si>
-  <si>
     <t>We must be prepared with questions.</t>
   </si>
   <si>
@@ -210,18 +171,9 @@
     <t>Maybe hosting a banquet to show our sincerity.</t>
   </si>
   <si>
-    <t>We may have unccessary expenses just to cater the guests.</t>
-  </si>
-  <si>
-    <t>There may be a chance they will ambush us here!</t>
-  </si>
-  <si>
     <t>If the commanders die in our Kingdom, we will be in trouble!</t>
   </si>
   <si>
-    <t>We should welcome them wiith open arms and treat them like honorable guests.</t>
-  </si>
-  <si>
     <t>We could revise our agreement as well!</t>
   </si>
   <si>
@@ -237,24 +189,15 @@
     <t>We should find out what the weapon is first, before sending our men in blind.</t>
   </si>
   <si>
-    <t>Throughout history violence is only matched with violence</t>
-  </si>
-  <si>
     <t>In history, violence always resolves issues. One way or another.</t>
   </si>
   <si>
     <t>Just don’t send in the farmers.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I was hoping never to live through a war</t>
-  </si>
-  <si>
     <t>I am not saying we are already high in military expenditure.</t>
   </si>
   <si>
-    <t>Why do we always how to resort to such a move?</t>
-  </si>
-  <si>
     <t>Insufficient intelligence preparation will only sacrifice our men.</t>
   </si>
   <si>
@@ -273,22 +216,12 @@
     <t>Release news of our own secret weapons program.</t>
   </si>
   <si>
-    <t xml:space="preserve">This may make the other kingom nervous
-</t>
-  </si>
-  <si>
     <t>Make them scared!</t>
   </si>
   <si>
     <t>Rumuors and rumours, when will it end.</t>
   </si>
   <si>
-    <t>A little lie never hurt anyone</t>
-  </si>
-  <si>
-    <t>Be sure to say our weapons are superior</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I hope this isn’t true.</t>
   </si>
   <si>
@@ -307,17 +240,83 @@
     <t>Do you want to attract more attentions from our enemies?</t>
   </si>
   <si>
-    <t>It is not a secret if the other neighbouring Kingdoms know it.</t>
-  </si>
-  <si>
     <t>DUNGEON</t>
+  </si>
+  <si>
+    <t>The discover of a hidden weapons facility in a neighbouring kindom brings shocking news to the world. No-one knows where or what is in the facility but after attempting to reach out to the kingdom's military commander for comments, his silence says everything.</t>
+  </si>
+  <si>
+    <t>From our reports, there are no new weapons being made anywhere.</t>
+  </si>
+  <si>
+    <t>We should start saving and stockpile the food just in case.</t>
+  </si>
+  <si>
+    <t>I was wondering if the alliance was a scheme to conceal their real intention.</t>
+  </si>
+  <si>
+    <t>Maybe our enemy is trying to cast a bone between us to destroy our alliance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, they are definitely spying on us.</t>
+  </si>
+  <si>
+    <t>Sending a few more spies never hurts.</t>
+  </si>
+  <si>
+    <t>Maybe have them steal us something good too!</t>
+  </si>
+  <si>
+    <t>If they get caught, peace will be lost.</t>
+  </si>
+  <si>
+    <t>Shouldn't we be focusing why we must spend so much to train our spies?</t>
+  </si>
+  <si>
+    <t>I do not want to risk my men just because the military commander is stating so!</t>
+  </si>
+  <si>
+    <t>The spies are our best men to avoid being captured.</t>
+  </si>
+  <si>
+    <t>I would not expect this to get anywhere.</t>
+  </si>
+  <si>
+    <t>We may overspend just to cater the guests.</t>
+  </si>
+  <si>
+    <t>There might be a chance they will ambush us here!</t>
+  </si>
+  <si>
+    <t>We should welcome them with open arms and treat them like honorable guests.</t>
+  </si>
+  <si>
+    <t>Throughout history, violence is only matched with violence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was hoping never to live through a war.</t>
+  </si>
+  <si>
+    <t>Why do we always have to resort to such a move?</t>
+  </si>
+  <si>
+    <t>This may make the other kingom nervous.</t>
+  </si>
+  <si>
+    <t>A little lie will never hurt.</t>
+  </si>
+  <si>
+    <t>Be sure to say our weapons are more superior.</t>
+  </si>
+  <si>
+    <t>It is not a secret if the other neighbouring Kingdoms know about it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +364,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Cambria"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -504,64 +509,64 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,40 +884,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8367F1B7-398D-4782-AD70-2B5BABC98E37}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:13" ht="42.75">
+    <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -952,350 +957,345 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="6"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="26" t="b">
+      <c r="A4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="152.4">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="171.75">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="10" t="s">
+    <row r="6" spans="1:13" ht="28.2">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="B6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.2">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="B7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="152.4">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="29.25">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="6"/>
+    <row r="9" spans="1:13" ht="28.2">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
     </row>
-    <row r="7" spans="1:13" ht="29.25">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="6"/>
+    <row r="10" spans="1:13" ht="166.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="157.5">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="11" t="s">
+    <row r="11" spans="1:13" ht="28.2">
+      <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="B11" s="23" t="s">
         <v>48</v>
       </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
     </row>
-    <row r="9" spans="1:13" ht="29.25">
-      <c r="A9" s="13" t="s">
+    <row r="12" spans="1:13" ht="138.6">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="6"/>
+      <c r="D12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="171.75">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="10" t="s">
+    <row r="13" spans="1:13" ht="28.2">
+      <c r="A13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="B13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="166.2">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="E14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="29.25">
-      <c r="A11" s="13" t="s">
+      <c r="H14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="I14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" ht="143.25">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="J14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="K14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="L14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="29.25">
-      <c r="A13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="171.75">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>90</v>
+      <c r="M14" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B9:M9"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="L1:M1"/>
@@ -1304,7 +1304,13 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stories/WMDs.xlsx
+++ b/Stories/WMDs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F1281-E5B0-457B-B692-F4D64A078FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F197E9-98D4-410B-AF5A-5E3DD8F48A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{19A45076-EEA2-4D9B-A3FE-00F263EB5362}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19A45076-EEA2-4D9B-A3FE-00F263EB5362}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>MILITARY</t>
   </si>
@@ -310,6 +310,36 @@
   </si>
   <si>
     <t>It is not a secret if the other neighbouring Kingdoms know about it.</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>Turns out the neighbouring Kingdom was developing new technology to improve the quality of their equipment and was intending to share this information with other Kingdoms once it is completed.</t>
+  </si>
+  <si>
+    <t>The neighbouring Kingdom was outraged when they caught your spy, implying the amount of distrust you had. This had worsened the mutal ties between the Kingdom.</t>
+  </si>
+  <si>
+    <t>During the meeting, the military commander of the neighbouring Kingdom assured you that are not producing weapons with the aim of attacking other Kingdoms. Although you could sense a little displeasure in their tone due to your insistent probing.</t>
+  </si>
+  <si>
+    <t>The news of your soldiers raiding the neighbouring Kingdom's weapons facility reached the ears of the King from the neighbouring Kingdom. He had seen this move as a call for war and decides to wage war against you.</t>
+  </si>
+  <si>
+    <t>Word of your weapons facility had spread far and wide throughout the neighbouring Kingdoms and they had all seen this as a threat. As such, they have all decided to make an alliance to wage war on you in fear of you getting too powerful.</t>
   </si>
 </sst>
 </file>
@@ -495,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -541,11 +571,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -555,17 +597,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -882,40 +915,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8367F1B7-398D-4782-AD70-2B5BABC98E37}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="19"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
@@ -960,39 +993,39 @@
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="152.4">
       <c r="A5" s="5" t="s">
@@ -1039,39 +1072,39 @@
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="28.2">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="152.4">
       <c r="A8" s="5" t="s">
@@ -1118,20 +1151,20 @@
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="166.2">
       <c r="A10" s="5" t="s">
@@ -1178,20 +1211,20 @@
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="138.6">
       <c r="A12" s="11" t="s">
@@ -1238,20 +1271,20 @@
       <c r="A13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="166.2">
       <c r="A14" s="5" t="s">
@@ -1266,10 +1299,10 @@
       <c r="D14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -1290,12 +1323,112 @@
       <c r="L14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="17" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="55.2">
+      <c r="A15" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" ht="55.2">
+      <c r="A16" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" ht="55.2">
+      <c r="A17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" ht="55.2">
+      <c r="A18" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" ht="55.2">
+      <c r="A19" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="L1:M1"/>

--- a/Stories/WMDs.xlsx
+++ b/Stories/WMDs.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F197E9-98D4-410B-AF5A-5E3DD8F48A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19A45076-EEA2-4D9B-A3FE-00F263EB5362}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,9 +165,6 @@
     <t>Maybe hosting a banquet to show our sincerity.</t>
   </si>
   <si>
-    <t>If the commanders die in our Kingdom, we will be in trouble!</t>
-  </si>
-  <si>
     <t>We could revise our agreement as well!</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t xml:space="preserve"> I hope this isn’t true.</t>
   </si>
   <si>
-    <t>All I care is if there is enough money to manage the Kingdom.</t>
-  </si>
-  <si>
     <t>The people will revolt if they know we are spending money for such program!</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>DUNGEON</t>
   </si>
   <si>
-    <t>The discover of a hidden weapons facility in a neighbouring kindom brings shocking news to the world. No-one knows where or what is in the facility but after attempting to reach out to the kingdom's military commander for comments, his silence says everything.</t>
-  </si>
-  <si>
     <t>From our reports, there are no new weapons being made anywhere.</t>
   </si>
   <si>
@@ -327,25 +312,34 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>Turns out the neighbouring Kingdom was developing new technology to improve the quality of their equipment and was intending to share this information with other Kingdoms once it is completed.</t>
-  </si>
-  <si>
-    <t>The neighbouring Kingdom was outraged when they caught your spy, implying the amount of distrust you had. This had worsened the mutal ties between the Kingdom.</t>
-  </si>
-  <si>
-    <t>During the meeting, the military commander of the neighbouring Kingdom assured you that are not producing weapons with the aim of attacking other Kingdoms. Although you could sense a little displeasure in their tone due to your insistent probing.</t>
-  </si>
-  <si>
-    <t>The news of your soldiers raiding the neighbouring Kingdom's weapons facility reached the ears of the King from the neighbouring Kingdom. He had seen this move as a call for war and decides to wage war against you.</t>
-  </si>
-  <si>
-    <t>Word of your weapons facility had spread far and wide throughout the neighbouring Kingdoms and they had all seen this as a threat. As such, they have all decided to make an alliance to wage war on you in fear of you getting too powerful.</t>
+    <t>The discovery of a hidden weapons facility in a neighbouring kingdom brings shocking news to the world. No-one knows where or what is in the facility but after attempting to reach out to the kingdom's military commander for comment, his silence says everything.</t>
+  </si>
+  <si>
+    <t>If the commanders die in our kingdom we will be in trouble!</t>
+  </si>
+  <si>
+    <t>All I care is if there is enough money to manage the kingdom.</t>
+  </si>
+  <si>
+    <t>Turns out the neighbouring kingdom was developing new technology to improve the quality of their equipment and was intending to share this information with other kingdoms once it was completed.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdom was outraged when they caught your spy, implying the amount of distrust you had. This had worsened the mutal ties between the kingdoms.</t>
+  </si>
+  <si>
+    <t>During the meeting, the military commander of the neighbouring kingdom assured you that thy are not producing weapons with the aim of attacking other kingdoms. Although you could sense a little displeasure in their tone due to your insistent probing.</t>
+  </si>
+  <si>
+    <t>The news of your soldiers raiding the neighbouring kingdom's weapons facility reached the ears of the king from the neighbouring kingdom. He had seen this move as a call for war and decides to wage war against you.</t>
+  </si>
+  <si>
+    <t>Word of your weapons facility had spread far and wide throughout the neighbouring kingdoms and they had all seen this as a threat. As such, they have all decided to make an alliance to wage war on you in fear of you getting too powerful.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -574,11 +568,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -591,19 +591,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{937595AA-419F-467B-9454-30E1ED3C1E76}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,50 +901,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8367F1B7-398D-4782-AD70-2B5BABC98E37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="14.3" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" ht="41.4">
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="42.8">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -989,45 +983,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+    <row r="3" spans="1:13" ht="14.95" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.3" customHeight="1">
       <c r="A4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="152.4">
+      <c r="B4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="171.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1041,16 +1035,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>24</v>
@@ -1065,48 +1059,48 @@
         <v>27</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.55" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.2">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.55" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" ht="152.4">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="156.9">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1114,28 +1108,28 @@
         <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>35</v>
@@ -1144,29 +1138,29 @@
         <v>36</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.55" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" ht="166.2">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="156.9">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1168,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>40</v>
@@ -1192,243 +1186,238 @@
         <v>44</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="28.55">
+      <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.2">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" ht="138.6">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" ht="142.65">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="28.55" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.2">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="166.2">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" ht="171.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="17" t="s">
+    </row>
+    <row r="15" spans="1:13" ht="57.1">
+      <c r="A15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="B15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="57.1">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="17" t="s">
+      <c r="B16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="57.1">
+      <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.2">
-      <c r="A15" s="27" t="s">
+      <c r="B17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" ht="57.1">
+      <c r="A18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="55.2">
-      <c r="A16" s="27" t="s">
+      <c r="B18" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="57.1">
+      <c r="A19" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="55.2">
-      <c r="A17" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="55.2">
-      <c r="A18" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="55.2">
-      <c r="A19" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="L1:M1"/>
@@ -1442,6 +1431,11 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Stories/WMDs.xlsx
+++ b/Stories/WMDs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CFCA4C-C2BF-4D54-8714-A1C84EC89205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -321,25 +319,25 @@
     <t>All I care is if there is enough money to manage the kingdom.</t>
   </si>
   <si>
-    <t>Turns out the neighbouring kingdom was developing new technology to improve the quality of their equipment and was intending to share this information with other kingdoms once it was completed.</t>
-  </si>
-  <si>
     <t>The neighbouring kingdom was outraged when they caught your spy, implying the amount of distrust you had. This had worsened the mutal ties between the kingdoms.</t>
   </si>
   <si>
-    <t>During the meeting, the military commander of the neighbouring kingdom assured you that thy are not producing weapons with the aim of attacking other kingdoms. Although you could sense a little displeasure in their tone due to your insistent probing.</t>
-  </si>
-  <si>
-    <t>The news of your soldiers raiding the neighbouring kingdom's weapons facility reached the ears of the king from the neighbouring kingdom. He had seen this move as a call for war and decides to wage war against you.</t>
-  </si>
-  <si>
-    <t>Word of your weapons facility had spread far and wide throughout the neighbouring kingdoms and they had all seen this as a threat. As such, they have all decided to make an alliance to wage war on you in fear of you getting too powerful.</t>
+    <t>It seems that the neighbouring kingdom was developing new technology to improve the quality of their equipment and was intending to share this information with other kingdoms once it was completed.</t>
+  </si>
+  <si>
+    <t>During the meeting, the military commander of the neighbouring kingdom assured you that they are not producing weapons with the aim of attacking other kingdoms. Although, you could sense a little displeasure in their tone due to your insistent probing.</t>
+  </si>
+  <si>
+    <t>The news of your soldiers raiding the neighbouring kingdom's weapons facility reached the ears of their king. He had seen this move as a call for war and decides to wage war against you.</t>
+  </si>
+  <si>
+    <t>Word of your weapons facility had spread far and wide throughout the neighbouring kingdoms and they had all seen this as a threat. As such, they decided to make an alliance to wage war on you in fear of you getting too powerful.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -571,25 +569,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -597,7 +595,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,50 +899,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.3" customHeight="1">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="21"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="21"/>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="21"/>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:13" ht="42.8">
+    <row r="2" spans="1:13" ht="41.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -983,11 +981,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.95" customHeight="1">
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="20"/>
@@ -1002,11 +1000,11 @@
       <c r="L3" s="20"/>
       <c r="M3" s="21"/>
     </row>
-    <row r="4" spans="1:13" ht="14.3" customHeight="1">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="20"/>
@@ -1021,7 +1019,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="171.2">
+    <row r="5" spans="1:13" ht="152.4">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1062,11 +1060,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.55" customHeight="1">
+    <row r="6" spans="1:13" ht="28.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="20"/>
@@ -1081,7 +1079,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="28.55" customHeight="1">
+    <row r="7" spans="1:13" ht="28.5" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1098,7 @@
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="156.9">
+    <row r="8" spans="1:13" ht="152.4">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1141,11 +1139,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.55" customHeight="1">
+    <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="20"/>
@@ -1160,7 +1158,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="156.9">
+    <row r="10" spans="1:13" ht="166.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1201,11 +1199,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.55">
+    <row r="11" spans="1:13" ht="28.2">
       <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="20"/>
@@ -1220,7 +1218,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" ht="142.65">
+    <row r="12" spans="1:13" ht="138.6">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1261,11 +1259,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.55" customHeight="1">
+    <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="20"/>
@@ -1280,7 +1278,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="171.2">
+    <row r="14" spans="1:13" ht="166.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1321,12 +1319,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="57.1">
+    <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>97</v>
+      <c r="B15" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1340,12 +1338,12 @@
       <c r="L15" s="20"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="57.1">
+    <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>98</v>
+      <c r="B16" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1359,11 +1357,11 @@
       <c r="L16" s="20"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="57.1">
+    <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="20"/>
@@ -1378,11 +1376,11 @@
       <c r="L17" s="20"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="57.1">
+    <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="20"/>
@@ -1397,11 +1395,11 @@
       <c r="L18" s="20"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="57.1">
+    <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="26" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="20"/>
@@ -1418,6 +1416,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="L1:M1"/>
@@ -1431,11 +1434,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Stories/WMDs.xlsx
+++ b/Stories/WMDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CFCA4C-C2BF-4D54-8714-A1C84EC89205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E1F8C-9FC8-48C8-A6D2-86B605E8B5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Upfront</t>
   </si>
   <si>
-    <t>New weapons to cause mass destruction</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
@@ -99,13 +96,7 @@
     <t>Maybe we should evacuate?</t>
   </si>
   <si>
-    <t>Maybe that is why the metal ingot and charcoal are so expensive now.</t>
-  </si>
-  <si>
     <t>I have not received any news from my men.</t>
-  </si>
-  <si>
-    <t>There is no way such thing would go unnoticed under my radar.</t>
   </si>
   <si>
     <t>I do not think our allies will go against our peace treaty agreement.</t>
@@ -127,12 +118,6 @@
 </t>
   </si>
   <si>
-    <t>Spies always get caught</t>
-  </si>
-  <si>
-    <t>I could have the peddlers working out for information as well!</t>
-  </si>
-  <si>
     <t>Maybe it is better to buy off their men for more information.</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>ACTION 2</t>
   </si>
   <si>
-    <t>Set up a meeting with the military commanders of the neighbouring kindom.</t>
-  </si>
-  <si>
     <t>This is a very smart move.</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
     <t>Maybe hosting a banquet to show our sincerity.</t>
   </si>
   <si>
-    <t>We could revise our agreement as well!</t>
-  </si>
-  <si>
     <t>ACTION 3</t>
   </si>
   <si>
@@ -193,9 +172,6 @@
     <t>This is a suicide mission!</t>
   </si>
   <si>
-    <t>War always started when one side is exerting through military means.</t>
-  </si>
-  <si>
     <t>This may anger our allies!</t>
   </si>
   <si>
@@ -208,36 +184,18 @@
     <t>Make them scared!</t>
   </si>
   <si>
-    <t>Rumuors and rumours, when will it end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I hope this isn’t true.</t>
-  </si>
-  <si>
-    <t>The people will revolt if they know we are spending money for such program!</t>
-  </si>
-  <si>
     <t>An eye for an eye is a foolish idea.</t>
   </si>
   <si>
     <t>How is this even a strategy?</t>
   </si>
   <si>
-    <t>Do you want to attract more attentions from our enemies?</t>
-  </si>
-  <si>
     <t>DUNGEON</t>
   </si>
   <si>
     <t>From our reports, there are no new weapons being made anywhere.</t>
   </si>
   <si>
-    <t>We should start saving and stockpile the food just in case.</t>
-  </si>
-  <si>
-    <t>I was wondering if the alliance was a scheme to conceal their real intention.</t>
-  </si>
-  <si>
     <t>Maybe our enemy is trying to cast a bone between us to destroy our alliance!</t>
   </si>
   <si>
@@ -253,12 +211,6 @@
     <t>If they get caught, peace will be lost.</t>
   </si>
   <si>
-    <t>Shouldn't we be focusing why we must spend so much to train our spies?</t>
-  </si>
-  <si>
-    <t>I do not want to risk my men just because the military commander is stating so!</t>
-  </si>
-  <si>
     <t>The spies are our best men to avoid being captured.</t>
   </si>
   <si>
@@ -271,30 +223,15 @@
     <t>There might be a chance they will ambush us here!</t>
   </si>
   <si>
-    <t>We should welcome them with open arms and treat them like honorable guests.</t>
-  </si>
-  <si>
     <t>Throughout history, violence is only matched with violence.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I was hoping never to live through a war.</t>
-  </si>
-  <si>
     <t>Why do we always have to resort to such a move?</t>
   </si>
   <si>
-    <t>This may make the other kingom nervous.</t>
-  </si>
-  <si>
     <t>A little lie will never hurt.</t>
   </si>
   <si>
-    <t>Be sure to say our weapons are more superior.</t>
-  </si>
-  <si>
-    <t>It is not a secret if the other neighbouring Kingdoms know about it.</t>
-  </si>
-  <si>
     <t>EVENT SUMMARY HEADER</t>
   </si>
   <si>
@@ -310,28 +247,91 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>The discovery of a hidden weapons facility in a neighbouring kingdom brings shocking news to the world. No-one knows where or what is in the facility but after attempting to reach out to the kingdom's military commander for comment, his silence says everything.</t>
-  </si>
-  <si>
-    <t>If the commanders die in our kingdom we will be in trouble!</t>
-  </si>
-  <si>
-    <t>All I care is if there is enough money to manage the kingdom.</t>
-  </si>
-  <si>
-    <t>The neighbouring kingdom was outraged when they caught your spy, implying the amount of distrust you had. This had worsened the mutal ties between the kingdoms.</t>
-  </si>
-  <si>
     <t>It seems that the neighbouring kingdom was developing new technology to improve the quality of their equipment and was intending to share this information with other kingdoms once it was completed.</t>
   </si>
   <si>
-    <t>During the meeting, the military commander of the neighbouring kingdom assured you that they are not producing weapons with the aim of attacking other kingdoms. Although, you could sense a little displeasure in their tone due to your insistent probing.</t>
-  </si>
-  <si>
-    <t>The news of your soldiers raiding the neighbouring kingdom's weapons facility reached the ears of their king. He had seen this move as a call for war and decides to wage war against you.</t>
-  </si>
-  <si>
-    <t>Word of your weapons facility had spread far and wide throughout the neighbouring kingdoms and they had all seen this as a threat. As such, they decided to make an alliance to wage war on you in fear of you getting too powerful.</t>
+    <t>New weapons to cause mass destruction.</t>
+  </si>
+  <si>
+    <t>The discovery of a hidden weapons facility in a neighbouring kingdom causes shock across the world. No one knows where or what is in the facility but after attempting to reach out to the kingdom's military commander for comment, his silence says everything.</t>
+  </si>
+  <si>
+    <t>We should start saving and stockpiling the food just in case.</t>
+  </si>
+  <si>
+    <t>I was wondering if the alliance was a scheme to conceal their real intentions.</t>
+  </si>
+  <si>
+    <t>Maybe that is why metal ingots and charcoal are so expensive now.</t>
+  </si>
+  <si>
+    <t>There is no way such a thing would go unnoticed under my radar.</t>
+  </si>
+  <si>
+    <t>Spies always get caught.</t>
+  </si>
+  <si>
+    <t>I could have the peddlers working for information as well!</t>
+  </si>
+  <si>
+    <t>Shouldn't we be focusing on why we must spend so much to train our spies?</t>
+  </si>
+  <si>
+    <t>I do not want to risk my men just because the military commander says so!</t>
+  </si>
+  <si>
+    <t>Set up a meeting with the military commanders of the neighbouring kingdom.</t>
+  </si>
+  <si>
+    <t>If their commanders die in our Kingdom we will be in trouble!</t>
+  </si>
+  <si>
+    <t>We should welcome them with open arms and treat them like honourable guests.</t>
+  </si>
+  <si>
+    <t>We could revise our treaty agreement as well!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was hoping to never live through a war.</t>
+  </si>
+  <si>
+    <t>War always starts when one side exerts pressure with the military.</t>
+  </si>
+  <si>
+    <t>Rumours and rumours, when will it end.</t>
+  </si>
+  <si>
+    <t>Be sure to say our weapons are superior.</t>
+  </si>
+  <si>
+    <t>I hope this isn’t true.</t>
+  </si>
+  <si>
+    <t>All I care is if there is enough money to manage the Kingdom.</t>
+  </si>
+  <si>
+    <t>The people will revolt if they know we are spending money for such a program!</t>
+  </si>
+  <si>
+    <t>Do you want to attract more attention from our enemies?</t>
+  </si>
+  <si>
+    <t>It is not a secret if the other neighbouring kingdoms know about it.</t>
+  </si>
+  <si>
+    <t>This may make the other kingdoms nervous.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdom was outraged when they caught your spy, implying the amount of distrust you had. This has worsened the mutual ties between the kingdoms.</t>
+  </si>
+  <si>
+    <t>During the meeting, the military commander of the neighbouring kingdom assured you that they are not producing weapons to attack other kingdoms. Although, you could sense a little displeasure in their tone due to your insistent probing.</t>
+  </si>
+  <si>
+    <t>Word of your weapons facility had spread far and wide throughout the neighbouring kingdoms and they had all seen this as a threat. As such, they decided to make an alliance to wage war against you in fear of you getting too powerful.</t>
+  </si>
+  <si>
+    <t>The news of your soldiers raiding the neighbouring kingdom's weapons facility reached the ears of their king. He saw this move as a gross betrayal and decided to wage war against you.</t>
   </si>
 </sst>
 </file>
@@ -569,11 +569,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -585,9 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -910,34 +910,34 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="21"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="21"/>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="21"/>
@@ -983,10 +983,10 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -1004,8 +1004,8 @@
       <c r="A4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>94</v>
+      <c r="B4" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1021,51 +1021,51 @@
     </row>
     <row r="5" spans="1:13" ht="152.4">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -1098,53 +1098,53 @@
       <c r="L7" s="20"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="152.4">
+    <row r="8" spans="1:13" ht="138.6">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -1158,53 +1158,53 @@
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="166.2">
+    <row r="10" spans="1:13" ht="180">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.2">
       <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1220,51 +1220,51 @@
     </row>
     <row r="12" spans="1:13" ht="138.6">
       <c r="A12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1278,53 +1278,53 @@
       <c r="L13" s="20"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="166.2">
+    <row r="14" spans="1:13" ht="180">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>97</v>
+        <v>69</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1359,9 +1359,9 @@
     </row>
     <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="20"/>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>100</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -1416,11 +1416,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="L1:M1"/>
@@ -1434,6 +1429,11 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Stories/WMDs.xlsx
+++ b/Stories/WMDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E1F8C-9FC8-48C8-A6D2-86B605E8B5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3692955B-69F9-41D3-8042-F05EE93B76E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
 </t>
   </si>
   <si>
-    <t>Maybe it is better to buy off their men for more information.</t>
-  </si>
-  <si>
     <t>No, this must be a trap to frame us for doubting them!</t>
   </si>
   <si>
@@ -202,18 +199,12 @@
     <t xml:space="preserve"> Yes, they are definitely spying on us.</t>
   </si>
   <si>
-    <t>Sending a few more spies never hurts.</t>
-  </si>
-  <si>
     <t>Maybe have them steal us something good too!</t>
   </si>
   <si>
     <t>If they get caught, peace will be lost.</t>
   </si>
   <si>
-    <t>The spies are our best men to avoid being captured.</t>
-  </si>
-  <si>
     <t>I would not expect this to get anywhere.</t>
   </si>
   <si>
@@ -265,9 +256,6 @@
     <t>Maybe that is why metal ingots and charcoal are so expensive now.</t>
   </si>
   <si>
-    <t>There is no way such a thing would go unnoticed under my radar.</t>
-  </si>
-  <si>
     <t>Spies always get caught.</t>
   </si>
   <si>
@@ -325,13 +313,25 @@
     <t>The neighbouring kingdom was outraged when they caught your spy, implying the amount of distrust you had. This has worsened the mutual ties between the kingdoms.</t>
   </si>
   <si>
-    <t>During the meeting, the military commander of the neighbouring kingdom assured you that they are not producing weapons to attack other kingdoms. Although, you could sense a little displeasure in their tone due to your insistent probing.</t>
-  </si>
-  <si>
     <t>Word of your weapons facility had spread far and wide throughout the neighbouring kingdoms and they had all seen this as a threat. As such, they decided to make an alliance to wage war against you in fear of you getting too powerful.</t>
   </si>
   <si>
     <t>The news of your soldiers raiding the neighbouring kingdom's weapons facility reached the ears of their king. He saw this move as a gross betrayal and decided to wage war against you.</t>
+  </si>
+  <si>
+    <t>During the meeting, the military commander of the neighbouring kingdom assured you that they were not producing weapons to attack other kingdoms. Although you could sense a little displeasure in their tone due to your insistent probing.</t>
+  </si>
+  <si>
+    <t>The spies are the best men to avoid being captured.</t>
+  </si>
+  <si>
+    <t>Maybe it is better to bribe their men for more information.</t>
+  </si>
+  <si>
+    <t>Sending a few more spies never hurt.</t>
+  </si>
+  <si>
+    <t>There is no way such a thing would go unnoticed below my radar.</t>
   </si>
 </sst>
 </file>
@@ -569,25 +569,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -910,34 +910,34 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:M19"/>
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="21"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="21"/>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="21"/>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="21"/>
@@ -983,10 +983,10 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -1004,8 +1004,8 @@
       <c r="A4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>75</v>
+      <c r="B4" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1033,38 +1033,38 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="20"/>
@@ -1106,45 +1106,45 @@
         <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -1163,48 +1163,48 @@
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.2">
       <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1223,48 +1223,48 @@
         <v>18</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.5" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1283,48 +1283,48 @@
         <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="K14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="M14" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2">
       <c r="A15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="16" spans="1:13" ht="55.2">
       <c r="A16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>98</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="17" spans="1:13" ht="55.2">
       <c r="A17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="18" spans="1:13" ht="55.2">
       <c r="A18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>101</v>
+        <v>68</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="19" spans="1:13" ht="55.2">
       <c r="A19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>100</v>
+        <v>69</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -1416,6 +1416,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="L1:M1"/>
@@ -1429,11 +1434,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
